--- a/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
@@ -1481,9 +1481,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,6 +1507,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="N371" sqref="N371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1975,8 +1975,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1984,8 +1984,8 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1993,8 +1993,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2040,36 +2040,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="80" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="15">
         <v>2019</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="80"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -10543,9 +10543,7 @@
         <v>246</v>
       </c>
       <c r="C388" s="61"/>
-      <c r="D388" s="22">
-        <v>0</v>
-      </c>
+      <c r="D388" s="22"/>
       <c r="E388" s="23"/>
       <c r="F388" s="24"/>
       <c r="G388" s="63"/>
@@ -11125,9 +11123,9 @@
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
-      <c r="E415" s="77"/>
-      <c r="F415" s="77"/>
-      <c r="G415" s="77"/>
+      <c r="E415" s="76"/>
+      <c r="F415" s="76"/>
+      <c r="G415" s="76"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
@@ -11143,10 +11141,10 @@
       <c r="B417" s="8"/>
       <c r="C417" s="13"/>
       <c r="D417" s="8"/>
-      <c r="E417" s="76" t="s">
+      <c r="E417" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="F417" s="76"/>
+      <c r="F417" s="85"/>
       <c r="G417" s="8"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11154,8 +11152,8 @@
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
-      <c r="E418" s="76"/>
-      <c r="F418" s="76"/>
+      <c r="E418" s="85"/>
+      <c r="F418" s="85"/>
       <c r="G418" s="8"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11163,10 +11161,10 @@
       <c r="B419" s="8"/>
       <c r="C419" s="13"/>
       <c r="D419" s="8"/>
-      <c r="E419" s="77" t="s">
+      <c r="E419" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="F419" s="77"/>
+      <c r="F419" s="76"/>
       <c r="G419" s="8"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11210,10 +11208,10 @@
       <c r="B424" s="8"/>
       <c r="C424" s="13"/>
       <c r="D424" s="8"/>
-      <c r="E424" s="76" t="s">
+      <c r="E424" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="F424" s="76"/>
+      <c r="F424" s="85"/>
       <c r="G424" s="8"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11221,10 +11219,10 @@
       <c r="B425" s="8"/>
       <c r="C425" s="13"/>
       <c r="D425" s="8"/>
-      <c r="E425" s="76" t="s">
+      <c r="E425" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="F425" s="76"/>
+      <c r="F425" s="85"/>
       <c r="G425" s="8"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11607,6 +11605,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
@@ -11617,11 +11620,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
@@ -1481,6 +1481,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1507,9 +1510,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N371" sqref="N371"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1975,8 +1975,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1984,8 +1984,8 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1993,8 +1993,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2040,36 +2040,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="79" t="s">
+      <c r="F9" s="85"/>
+      <c r="G9" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="15">
         <v>2019</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="79"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -2193,9 +2193,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="22">
+        <f>SUM(C14:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="22">
+        <f>SUM(D14:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="23">
@@ -2653,9 +2655,11 @@
         <v>31</v>
       </c>
       <c r="C36" s="22">
+        <f>SUM(C19:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="22">
+        <f>SUM(D19:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="23">
@@ -3092,9 +3096,11 @@
         <v>201</v>
       </c>
       <c r="C55" s="22">
+        <f>SUM(C38:C54)</f>
         <v>0</v>
       </c>
       <c r="D55" s="22">
+        <f>SUM(D38:D54)</f>
         <v>0</v>
       </c>
       <c r="E55" s="23">
@@ -11123,9 +11129,9 @@
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
-      <c r="E415" s="76"/>
-      <c r="F415" s="76"/>
-      <c r="G415" s="76"/>
+      <c r="E415" s="77"/>
+      <c r="F415" s="77"/>
+      <c r="G415" s="77"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
@@ -11141,10 +11147,10 @@
       <c r="B417" s="8"/>
       <c r="C417" s="13"/>
       <c r="D417" s="8"/>
-      <c r="E417" s="85" t="s">
+      <c r="E417" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F417" s="85"/>
+      <c r="F417" s="76"/>
       <c r="G417" s="8"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11152,8 +11158,8 @@
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
-      <c r="E418" s="85"/>
-      <c r="F418" s="85"/>
+      <c r="E418" s="76"/>
+      <c r="F418" s="76"/>
       <c r="G418" s="8"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11161,10 +11167,10 @@
       <c r="B419" s="8"/>
       <c r="C419" s="13"/>
       <c r="D419" s="8"/>
-      <c r="E419" s="76" t="s">
+      <c r="E419" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="F419" s="76"/>
+      <c r="F419" s="77"/>
       <c r="G419" s="8"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11208,10 +11214,10 @@
       <c r="B424" s="8"/>
       <c r="C424" s="13"/>
       <c r="D424" s="8"/>
-      <c r="E424" s="85" t="s">
+      <c r="E424" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="F424" s="85"/>
+      <c r="F424" s="76"/>
       <c r="G424" s="8"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11219,10 +11225,10 @@
       <c r="B425" s="8"/>
       <c r="C425" s="13"/>
       <c r="D425" s="8"/>
-      <c r="E425" s="85" t="s">
+      <c r="E425" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="F425" s="85"/>
+      <c r="F425" s="76"/>
       <c r="G425" s="8"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11605,11 +11611,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
@@ -11620,6 +11621,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajoris\Desktop\NOVI UPDATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1298,7 +1298,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1465,9 +1465,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1480,9 +1477,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1510,6 +1504,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1960,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K416" sqref="K416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1975,8 +1972,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1984,8 +1981,8 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1993,8 +1990,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2011,65 +2008,65 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="81"/>
+      <c r="E9" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="80" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="78" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="15">
         <v>2019</v>
       </c>
@@ -2082,7 +2079,7 @@
       <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="80"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -3157,9 +3154,11 @@
         <v>202</v>
       </c>
       <c r="C58" s="22">
+        <f>SUM(C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="22">
+        <f>SUM(D57)</f>
         <v>0</v>
       </c>
       <c r="E58" s="23">
@@ -3262,9 +3261,11 @@
         <v>173</v>
       </c>
       <c r="C63" s="22">
+        <f>SUM(C60:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="22">
+        <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
       <c r="E63" s="23">
@@ -3425,9 +3426,11 @@
         <v>204</v>
       </c>
       <c r="C70" s="22">
+        <f>SUM(C65:C69)</f>
         <v>0</v>
       </c>
       <c r="D70" s="22">
+        <f>SUM(D65:D69)</f>
         <v>0</v>
       </c>
       <c r="E70" s="23">
@@ -3638,9 +3641,11 @@
         <v>205</v>
       </c>
       <c r="C79" s="22">
+        <f>SUM(C72:C78)</f>
         <v>0</v>
       </c>
       <c r="D79" s="22">
+        <f>SUM(D72:D78)</f>
         <v>0</v>
       </c>
       <c r="E79" s="23">
@@ -3939,9 +3944,11 @@
         <v>205</v>
       </c>
       <c r="C92" s="22">
+        <f>SUM(C81:C91)</f>
         <v>0</v>
       </c>
       <c r="D92" s="22">
+        <f>SUM(D81:D91)</f>
         <v>0</v>
       </c>
       <c r="E92" s="23">
@@ -4225,9 +4232,11 @@
         <v>206</v>
       </c>
       <c r="C104" s="22">
+        <f>SUM(C94:C103)</f>
         <v>0</v>
       </c>
       <c r="D104" s="22">
+        <f>SUM(D94:D103)</f>
         <v>0</v>
       </c>
       <c r="E104" s="23">
@@ -4387,9 +4396,11 @@
         <v>207</v>
       </c>
       <c r="C112" s="22">
+        <f>SUM(C107:C111)</f>
         <v>0</v>
       </c>
       <c r="D112" s="22">
+        <f>SUM(D107:D111)</f>
         <v>0</v>
       </c>
       <c r="E112" s="23">
@@ -4513,9 +4524,11 @@
         <v>205</v>
       </c>
       <c r="C118" s="22">
+        <f>SUM(C114:C117)</f>
         <v>0</v>
       </c>
       <c r="D118" s="22">
+        <f>SUM(D114:D117)</f>
         <v>0</v>
       </c>
       <c r="E118" s="23">
@@ -4639,9 +4652,11 @@
         <v>203</v>
       </c>
       <c r="C124" s="22">
+        <f>SUM(C120:C123)</f>
         <v>0</v>
       </c>
       <c r="D124" s="22">
+        <f>SUM(D120:D123)</f>
         <v>0</v>
       </c>
       <c r="E124" s="23">
@@ -4895,9 +4910,11 @@
         <v>173</v>
       </c>
       <c r="C136" s="22">
+        <f>SUM(C133:C135)</f>
         <v>0</v>
       </c>
       <c r="D136" s="22">
+        <f>SUM(D133:D135)</f>
         <v>0</v>
       </c>
       <c r="E136" s="23">
@@ -5108,9 +5125,11 @@
         <v>208</v>
       </c>
       <c r="C145" s="22">
+        <f>SUM(C138:C144)</f>
         <v>0</v>
       </c>
       <c r="D145" s="22">
+        <f>SUM(D138:D144)</f>
         <v>0</v>
       </c>
       <c r="E145" s="23">
@@ -5409,9 +5428,11 @@
         <v>209</v>
       </c>
       <c r="C158" s="22">
+        <f>SUM(C147:C157)</f>
         <v>0</v>
       </c>
       <c r="D158" s="22">
+        <f>SUM(D147:D157)</f>
         <v>0</v>
       </c>
       <c r="E158" s="23">
@@ -5693,9 +5714,11 @@
         <v>208</v>
       </c>
       <c r="C170" s="22">
+        <f>SUM(C160:C169)</f>
         <v>0</v>
       </c>
       <c r="D170" s="22">
+        <f>SUM(D160:D169)</f>
         <v>0</v>
       </c>
       <c r="E170" s="23">
@@ -5881,9 +5904,11 @@
         <v>211</v>
       </c>
       <c r="C178" s="22">
+        <f>SUM(C172:C177)</f>
         <v>0</v>
       </c>
       <c r="D178" s="22">
+        <f>SUM(D172:D177)</f>
         <v>0</v>
       </c>
       <c r="E178" s="23">
@@ -6165,9 +6190,11 @@
         <v>210</v>
       </c>
       <c r="C190" s="22">
+        <f>SUM(C180:C189)</f>
         <v>0</v>
       </c>
       <c r="D190" s="22">
+        <f>SUM(D180:D189)</f>
         <v>0</v>
       </c>
       <c r="E190" s="23">
@@ -6378,9 +6405,11 @@
         <v>211</v>
       </c>
       <c r="C199" s="22">
+        <f>SUM(C192:C198)</f>
         <v>0</v>
       </c>
       <c r="D199" s="22">
+        <f>SUM(D192:D198)</f>
         <v>0</v>
       </c>
       <c r="E199" s="23">
@@ -6677,9 +6706,11 @@
         <v>212</v>
       </c>
       <c r="C212" s="22">
+        <f>SUM(C201:C211)</f>
         <v>0</v>
       </c>
       <c r="D212" s="22">
+        <f>SUM(D201:D211)</f>
         <v>0</v>
       </c>
       <c r="E212" s="23">
@@ -6961,9 +6992,11 @@
         <v>213</v>
       </c>
       <c r="C224" s="22">
+        <f>SUM(C214:C223)</f>
         <v>0</v>
       </c>
       <c r="D224" s="22">
+        <f>SUM(D214:D223)</f>
         <v>0</v>
       </c>
       <c r="E224" s="23">
@@ -7160,9 +7193,11 @@
         <v>214</v>
       </c>
       <c r="C233" s="22">
+        <f>SUM(C227:C232)</f>
         <v>0</v>
       </c>
       <c r="D233" s="22">
+        <f>SUM(D227:D232)</f>
         <v>0</v>
       </c>
       <c r="E233" s="23">
@@ -7298,9 +7333,11 @@
         <v>215</v>
       </c>
       <c r="C239" s="22">
+        <f>SUM(C235:C238)</f>
         <v>0</v>
       </c>
       <c r="D239" s="22">
+        <f>SUM(D235:D238)</f>
         <v>0</v>
       </c>
       <c r="E239" s="23">
@@ -7436,9 +7473,11 @@
         <v>216</v>
       </c>
       <c r="C245" s="22">
+        <f>SUM(C241:C244)</f>
         <v>0</v>
       </c>
       <c r="D245" s="22">
+        <f>SUM(D241:D244)</f>
         <v>0</v>
       </c>
       <c r="E245" s="23">
@@ -7953,9 +7992,11 @@
         <v>288</v>
       </c>
       <c r="C268" s="22">
+        <f>SUM(C247:C267)</f>
         <v>0</v>
       </c>
       <c r="D268" s="22">
+        <f>SUM(D247:D267)</f>
         <v>0</v>
       </c>
       <c r="E268" s="23">
@@ -8189,9 +8230,11 @@
         <v>217</v>
       </c>
       <c r="C278" s="22">
+        <f>SUM(C270:C277)</f>
         <v>0</v>
       </c>
       <c r="D278" s="22">
+        <f>SUM(D270:D277)</f>
         <v>0</v>
       </c>
       <c r="E278" s="23">
@@ -9410,9 +9453,11 @@
         <v>11</v>
       </c>
       <c r="C333" s="22">
+        <f>SUM(C329:C332)</f>
         <v>0</v>
       </c>
       <c r="D333" s="22">
+        <f>SUM(D329:D332)</f>
         <v>0</v>
       </c>
       <c r="E333" s="23">
@@ -9608,9 +9653,11 @@
         <v>291</v>
       </c>
       <c r="C343" s="22">
+        <f>SUM(C337:C342)</f>
         <v>0</v>
       </c>
       <c r="D343" s="22">
+        <f>SUM(D337:D342)</f>
         <v>0</v>
       </c>
       <c r="E343" s="23">
@@ -9734,9 +9781,11 @@
         <v>291</v>
       </c>
       <c r="C349" s="22">
+        <f>SUM(C345:C348)</f>
         <v>0</v>
       </c>
       <c r="D349" s="22">
+        <f>SUM(D345:D348)</f>
         <v>0</v>
       </c>
       <c r="E349" s="23">
@@ -9860,9 +9909,11 @@
         <v>11</v>
       </c>
       <c r="C355" s="22">
+        <f>SUM(C351:C354)</f>
         <v>0</v>
       </c>
       <c r="D355" s="22">
+        <f>SUM(D351:D354)</f>
         <v>0</v>
       </c>
       <c r="E355" s="23">
@@ -10055,9 +10106,11 @@
         <v>11</v>
       </c>
       <c r="C364" s="22">
+        <f>SUM(C357:C363)</f>
         <v>0</v>
       </c>
       <c r="D364" s="22">
+        <f>SUM(D357:D363)</f>
         <v>0</v>
       </c>
       <c r="E364" s="23">
@@ -10196,9 +10249,11 @@
         <v>11</v>
       </c>
       <c r="C371" s="22">
+        <f>SUM(C367:C370)</f>
         <v>0</v>
       </c>
       <c r="D371" s="22">
+        <f>SUM(D367:D370)</f>
         <v>0</v>
       </c>
       <c r="E371" s="23">
@@ -11105,22 +11160,22 @@
         <v>11</v>
       </c>
       <c r="C414" s="69">
-        <f t="shared" ref="C414:D414" si="45">SUM(C409:C413)</f>
-        <v>0</v>
-      </c>
-      <c r="D414" s="70">
-        <f t="shared" si="45"/>
+        <f>SUM(C410:C413)</f>
+        <v>0</v>
+      </c>
+      <c r="D414" s="69">
+        <f>SUM(D410:D413)</f>
         <v>0</v>
       </c>
       <c r="E414" s="23">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F414" s="71" t="e">
+      <c r="F414" s="70" t="e">
         <f>SUM(D414-C414)/C414*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G414" s="72" t="s">
+      <c r="G414" s="71" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11129,9 +11184,9 @@
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
-      <c r="E415" s="77"/>
-      <c r="F415" s="77"/>
-      <c r="G415" s="77"/>
+      <c r="E415" s="75"/>
+      <c r="F415" s="75"/>
+      <c r="G415" s="75"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
@@ -11147,10 +11202,10 @@
       <c r="B417" s="8"/>
       <c r="C417" s="13"/>
       <c r="D417" s="8"/>
-      <c r="E417" s="76" t="s">
+      <c r="E417" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="F417" s="76"/>
+      <c r="F417" s="84"/>
       <c r="G417" s="8"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11158,8 +11213,8 @@
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
-      <c r="E418" s="76"/>
-      <c r="F418" s="76"/>
+      <c r="E418" s="84"/>
+      <c r="F418" s="84"/>
       <c r="G418" s="8"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11167,10 +11222,10 @@
       <c r="B419" s="8"/>
       <c r="C419" s="13"/>
       <c r="D419" s="8"/>
-      <c r="E419" s="77" t="s">
+      <c r="E419" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="F419" s="77"/>
+      <c r="F419" s="75"/>
       <c r="G419" s="8"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11214,10 +11269,10 @@
       <c r="B424" s="8"/>
       <c r="C424" s="13"/>
       <c r="D424" s="8"/>
-      <c r="E424" s="76" t="s">
+      <c r="E424" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="F424" s="76"/>
+      <c r="F424" s="84"/>
       <c r="G424" s="8"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11225,10 +11280,10 @@
       <c r="B425" s="8"/>
       <c r="C425" s="13"/>
       <c r="D425" s="8"/>
-      <c r="E425" s="76" t="s">
+      <c r="E425" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="F425" s="76"/>
+      <c r="F425" s="84"/>
       <c r="G425" s="8"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11611,6 +11666,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
@@ -11621,11 +11681,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajoris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -881,16 +881,10 @@
     <t>Pelabuhan</t>
   </si>
   <si>
-    <t>Jakarta, 13 April 2021</t>
-  </si>
-  <si>
     <t>KAPOSKO</t>
   </si>
   <si>
     <t>NAMA XXXX</t>
-  </si>
-  <si>
-    <t>AKP NRP 83099999</t>
   </si>
   <si>
     <r>
@@ -957,6 +951,12 @@
   </si>
   <si>
     <t>a. Motor</t>
+  </si>
+  <si>
+    <t>Jakarta, 1 Januari 2021</t>
+  </si>
+  <si>
+    <t>AKP NRP 00000000</t>
   </si>
 </sst>
 </file>
@@ -1513,6 +1513,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,20 +1554,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:H473"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A400" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+      <selection activeCell="E433" sqref="E433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2018,8 +2018,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
@@ -2027,8 +2027,8 @@
       <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -2036,8 +2036,8 @@
       <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
@@ -2083,36 +2083,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
+      <c r="C9" s="90" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="43">
         <v>2019</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="F10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -2183,7 +2183,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C14" s="49">
         <v>0</v>
@@ -8035,7 +8035,7 @@
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C268" s="49">
         <f>SUM(C247:C267)</f>
@@ -8451,7 +8451,7 @@
         <v>8</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C286" s="49">
         <v>0</v>
@@ -9096,7 +9096,7 @@
         <v>28</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C315" s="51"/>
       <c r="D315" s="63"/>
@@ -9696,7 +9696,7 @@
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
       <c r="B343" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C343" s="49">
         <f>SUM(C337:C342)</f>
@@ -9824,7 +9824,7 @@
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C349" s="49">
         <f>SUM(C345:C348)</f>
@@ -11227,13 +11227,13 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="C415" s="89"/>
-      <c r="D415" s="90"/>
+        <v>294</v>
+      </c>
+      <c r="C415" s="79"/>
+      <c r="D415" s="80"/>
       <c r="E415" s="15"/>
       <c r="F415" s="65"/>
       <c r="G415" s="78"/>
@@ -11241,15 +11241,16 @@
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="37"/>
       <c r="B416" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C416" s="89">
-        <v>0</v>
-      </c>
-      <c r="D416" s="90">
+        <v>295</v>
+      </c>
+      <c r="C416" s="79">
+        <v>0</v>
+      </c>
+      <c r="D416" s="80">
         <v>0</v>
       </c>
       <c r="E416" s="15">
+        <f>D416-C416</f>
         <v>0</v>
       </c>
       <c r="F416" s="65" t="e">
@@ -11265,13 +11266,14 @@
       <c r="B417" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C417" s="89">
-        <v>0</v>
-      </c>
-      <c r="D417" s="90">
+      <c r="C417" s="79">
+        <v>0</v>
+      </c>
+      <c r="D417" s="80">
         <v>0</v>
       </c>
       <c r="E417" s="15">
+        <f t="shared" ref="E417:E421" si="46">D417-C417</f>
         <v>0</v>
       </c>
       <c r="F417" s="65" t="e">
@@ -11287,13 +11289,14 @@
       <c r="B418" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C418" s="89">
-        <v>0</v>
-      </c>
-      <c r="D418" s="90">
+      <c r="C418" s="79">
+        <v>0</v>
+      </c>
+      <c r="D418" s="80">
         <v>0</v>
       </c>
       <c r="E418" s="15">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F418" s="65" t="e">
@@ -11309,13 +11312,14 @@
       <c r="B419" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C419" s="89">
-        <v>0</v>
-      </c>
-      <c r="D419" s="90">
+      <c r="C419" s="79">
+        <v>0</v>
+      </c>
+      <c r="D419" s="80">
         <v>0</v>
       </c>
       <c r="E419" s="15">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F419" s="65" t="e">
@@ -11331,13 +11335,14 @@
       <c r="B420" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C420" s="89">
-        <v>0</v>
-      </c>
-      <c r="D420" s="90">
+      <c r="C420" s="79">
+        <v>0</v>
+      </c>
+      <c r="D420" s="80">
         <v>0</v>
       </c>
       <c r="E420" s="15">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F420" s="65" t="e">
@@ -11349,20 +11354,20 @@
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="91"/>
-      <c r="B421" s="93" t="s">
+      <c r="A421" s="81"/>
+      <c r="B421" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C421" s="92">
+      <c r="C421" s="82">
         <f>SUM(C416:C420)</f>
         <v>0</v>
       </c>
-      <c r="D421" s="92">
+      <c r="D421" s="82">
         <f>SUM(D416:D420)</f>
         <v>0</v>
       </c>
-      <c r="E421" s="92">
-        <f>SUM(E416:E420)</f>
+      <c r="E421" s="15">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F421" s="65" t="e">
@@ -11378,9 +11383,9 @@
       <c r="B422" s="6"/>
       <c r="C422" s="44"/>
       <c r="D422" s="44"/>
-      <c r="E422" s="79"/>
-      <c r="F422" s="79"/>
-      <c r="G422" s="79"/>
+      <c r="E422" s="85"/>
+      <c r="F422" s="85"/>
+      <c r="G422" s="85"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
@@ -11396,10 +11401,10 @@
       <c r="B424" s="6"/>
       <c r="C424" s="61"/>
       <c r="D424" s="44"/>
-      <c r="E424" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="F424" s="88"/>
+      <c r="E424" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="F424" s="84"/>
       <c r="G424" s="44"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11407,8 +11412,8 @@
       <c r="B425" s="6"/>
       <c r="C425" s="44"/>
       <c r="D425" s="44"/>
-      <c r="E425" s="88"/>
-      <c r="F425" s="88"/>
+      <c r="E425" s="84"/>
+      <c r="F425" s="84"/>
       <c r="G425" s="44"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11416,10 +11421,10 @@
       <c r="B426" s="6"/>
       <c r="C426" s="61"/>
       <c r="D426" s="44"/>
-      <c r="E426" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="F426" s="79"/>
+      <c r="E426" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="F426" s="85"/>
       <c r="G426" s="44"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -11463,10 +11468,10 @@
       <c r="B431" s="6"/>
       <c r="C431" s="61"/>
       <c r="D431" s="44"/>
-      <c r="E431" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="F431" s="88"/>
+      <c r="E431" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="F431" s="84"/>
       <c r="G431" s="44"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11474,10 +11479,10 @@
       <c r="B432" s="6"/>
       <c r="C432" s="61"/>
       <c r="D432" s="44"/>
-      <c r="E432" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="F432" s="88"/>
+      <c r="E432" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="F432" s="84"/>
       <c r="G432" s="44"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -11851,11 +11856,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E426:F426"/>
-    <mergeCell ref="E431:F431"/>
-    <mergeCell ref="E432:F432"/>
-    <mergeCell ref="E424:F424"/>
     <mergeCell ref="E422:G422"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
@@ -11866,6 +11866,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E426:F426"/>
+    <mergeCell ref="E431:F431"/>
+    <mergeCell ref="E432:F432"/>
+    <mergeCell ref="E424:F424"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_excel_date_compare.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="302">
   <si>
     <t>NO</t>
   </si>
@@ -957,6 +957,18 @@
   </si>
   <si>
     <t>AKP NRP 00000000</t>
+  </si>
+  <si>
+    <t>GIAT RANDOM CHECK "RAPID TEST ANTI GEN"</t>
+  </si>
+  <si>
+    <t>a. Positif</t>
+  </si>
+  <si>
+    <t>b. Negatif</t>
+  </si>
+  <si>
+    <t>VIII</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1319,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1524,6 +1536,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2001,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H473"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E433" sqref="E433"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2018,8 +2050,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
@@ -2027,8 +2059,8 @@
       <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -2036,8 +2068,8 @@
       <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -2083,36 +2115,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="88" t="s">
+      <c r="A9" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="88" t="s">
+      <c r="F9" s="101"/>
+      <c r="G9" s="96" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="43">
         <v>2019</v>
       </c>
@@ -2125,7 +2157,7 @@
       <c r="F10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="96"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -11379,79 +11411,125 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="6"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="44"/>
-      <c r="D422" s="44"/>
-      <c r="E422" s="85"/>
-      <c r="F422" s="85"/>
-      <c r="G422" s="85"/>
+      <c r="A422" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="B422" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C422" s="79"/>
+      <c r="D422" s="80"/>
+      <c r="E422" s="15"/>
+      <c r="F422" s="65"/>
+      <c r="G422" s="78"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="6"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="44"/>
-      <c r="D423" s="44"/>
-      <c r="E423" s="44"/>
-      <c r="F423" s="44"/>
-      <c r="G423" s="44"/>
+      <c r="A423" s="37"/>
+      <c r="B423" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C423" s="79">
+        <v>0</v>
+      </c>
+      <c r="D423" s="80">
+        <v>0</v>
+      </c>
+      <c r="E423" s="15">
+        <f>D423-C423</f>
+        <v>0</v>
+      </c>
+      <c r="F423" s="65" t="e">
+        <f t="shared" ref="F423:F425" si="47">SUM(D423-C423)/C423*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G423" s="78" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="6"/>
-      <c r="B424" s="6"/>
-      <c r="C424" s="61"/>
-      <c r="D424" s="44"/>
-      <c r="E424" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="F424" s="84"/>
-      <c r="G424" s="44"/>
+      <c r="A424" s="37"/>
+      <c r="B424" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C424" s="79">
+        <v>0</v>
+      </c>
+      <c r="D424" s="80">
+        <v>0</v>
+      </c>
+      <c r="E424" s="15">
+        <f t="shared" ref="E424:E425" si="48">D424-C424</f>
+        <v>0</v>
+      </c>
+      <c r="F424" s="65" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G424" s="78" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="6"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="44"/>
-      <c r="D425" s="44"/>
-      <c r="E425" s="84"/>
-      <c r="F425" s="84"/>
-      <c r="G425" s="44"/>
+      <c r="A425" s="81"/>
+      <c r="B425" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="82">
+        <f>SUM(C423:C424)</f>
+        <v>0</v>
+      </c>
+      <c r="D425" s="82">
+        <f>SUM(D423:D424)</f>
+        <v>0</v>
+      </c>
+      <c r="E425" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F425" s="65" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G425" s="78" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="6"/>
-      <c r="B426" s="6"/>
-      <c r="C426" s="61"/>
-      <c r="D426" s="44"/>
-      <c r="E426" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="F426" s="85"/>
-      <c r="G426" s="44"/>
+      <c r="A426" s="86"/>
+      <c r="B426" s="87"/>
+      <c r="C426" s="88"/>
+      <c r="D426" s="88"/>
+      <c r="E426" s="89"/>
+      <c r="F426" s="90"/>
+      <c r="G426" s="91"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
-      <c r="C427" s="61"/>
-      <c r="D427" s="44"/>
-      <c r="E427" s="44"/>
-      <c r="F427" s="44"/>
-      <c r="G427" s="44"/>
+      <c r="C427" s="84"/>
+      <c r="D427" s="84"/>
+      <c r="E427" s="84"/>
+      <c r="F427" s="84"/>
+      <c r="G427" s="84"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="61"/>
-      <c r="D428" s="44"/>
-      <c r="E428" s="44"/>
-      <c r="F428" s="44"/>
-      <c r="G428" s="44"/>
+      <c r="D428" s="84"/>
+      <c r="E428" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="F428" s="92"/>
+      <c r="G428" s="84"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="61"/>
+      <c r="C429" s="44"/>
       <c r="D429" s="44"/>
-      <c r="E429" s="44"/>
-      <c r="F429" s="44"/>
+      <c r="E429" s="92"/>
+      <c r="F429" s="92"/>
       <c r="G429" s="44"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -11459,8 +11537,10 @@
       <c r="B430" s="6"/>
       <c r="C430" s="61"/>
       <c r="D430" s="44"/>
-      <c r="E430" s="44"/>
-      <c r="F430" s="44"/>
+      <c r="E430" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="F430" s="93"/>
       <c r="G430" s="44"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -11468,10 +11548,8 @@
       <c r="B431" s="6"/>
       <c r="C431" s="61"/>
       <c r="D431" s="44"/>
-      <c r="E431" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="F431" s="84"/>
+      <c r="E431" s="44"/>
+      <c r="F431" s="44"/>
       <c r="G431" s="44"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11479,16 +11557,14 @@
       <c r="B432" s="6"/>
       <c r="C432" s="61"/>
       <c r="D432" s="44"/>
-      <c r="E432" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="F432" s="84"/>
+      <c r="E432" s="44"/>
+      <c r="F432" s="44"/>
       <c r="G432" s="44"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
-      <c r="C433" s="44"/>
+      <c r="C433" s="61"/>
       <c r="D433" s="44"/>
       <c r="E433" s="44"/>
       <c r="F433" s="44"/>
@@ -11497,7 +11573,7 @@
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
-      <c r="C434" s="44"/>
+      <c r="C434" s="61"/>
       <c r="D434" s="44"/>
       <c r="E434" s="44"/>
       <c r="F434" s="44"/>
@@ -11506,19 +11582,23 @@
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
-      <c r="C435" s="44"/>
+      <c r="C435" s="61"/>
       <c r="D435" s="44"/>
-      <c r="E435" s="44"/>
-      <c r="F435" s="44"/>
+      <c r="E435" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="F435" s="92"/>
       <c r="G435" s="44"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
-      <c r="C436" s="44"/>
+      <c r="C436" s="61"/>
       <c r="D436" s="44"/>
-      <c r="E436" s="44"/>
-      <c r="F436" s="44"/>
+      <c r="E436" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="F436" s="92"/>
       <c r="G436" s="44"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -11854,9 +11934,44 @@
       <c r="F473" s="44"/>
       <c r="G473" s="44"/>
     </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="6"/>
+      <c r="B474" s="6"/>
+      <c r="C474" s="44"/>
+      <c r="D474" s="44"/>
+      <c r="E474" s="44"/>
+      <c r="F474" s="44"/>
+      <c r="G474" s="44"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="6"/>
+      <c r="B475" s="6"/>
+      <c r="C475" s="44"/>
+      <c r="D475" s="44"/>
+      <c r="E475" s="44"/>
+      <c r="F475" s="44"/>
+      <c r="G475" s="44"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="6"/>
+      <c r="B476" s="6"/>
+      <c r="C476" s="44"/>
+      <c r="D476" s="44"/>
+      <c r="E476" s="44"/>
+      <c r="F476" s="44"/>
+      <c r="G476" s="44"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="6"/>
+      <c r="B477" s="6"/>
+      <c r="C477" s="44"/>
+      <c r="D477" s="44"/>
+      <c r="E477" s="44"/>
+      <c r="F477" s="44"/>
+      <c r="G477" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E422:G422"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -11866,11 +11981,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E426:F426"/>
-    <mergeCell ref="E431:F431"/>
-    <mergeCell ref="E432:F432"/>
-    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E429:F429"/>
+    <mergeCell ref="E430:F430"/>
+    <mergeCell ref="E435:F435"/>
+    <mergeCell ref="E436:F436"/>
+    <mergeCell ref="E428:F428"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
